--- a/trend_results/Rivers/RaparapawaiatJacksonRd_991412037a.xlsx
+++ b/trend_results/Rivers/RaparapawaiatJacksonRd_991412037a.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.385345292220081</v>
+        <v>0.614654707779919</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.478590567092008</v>
+        <v>0.521409432907992</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.7599991590577559</v>
+        <v>0.240000840942244</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0266602168156092</v>
+        <v>0.973339783184391</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">

--- a/trend_results/Rivers/RaparapawaiatJacksonRd_991412037a.xlsx
+++ b/trend_results/Rivers/RaparapawaiatJacksonRd_991412037a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.987662276064415</v>
+        <v>0.46625198963756</v>
       </c>
       <c r="G2" t="n">
-        <v>0.314814814814815</v>
+        <v>0.361702127659574</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.48936170212766</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.775</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.274624060150376</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0.179992786036978</v>
       </c>
       <c r="M2" t="n">
-        <v>0.622431247354022</v>
+        <v>0.0471815828388365</v>
       </c>
       <c r="N2" t="n">
-        <v>9.896362527941481</v>
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.614654707779919</v>
+        <v>0.442467978937887</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.898305084745763</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>10.23</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0146320861678001</v>
+        <v>-0.00996635732154</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0353607639805699</v>
+        <v>-0.0532274234557269</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0702403846153849</v>
+        <v>0.0425757404575977</v>
       </c>
       <c r="N3" t="n">
-        <v>0.14303114533529</v>
+        <v>-0.09742284771788889</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.116927477907674</v>
+        <v>0.404325116836936</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.396551724137931</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000586276083467</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.0006268595965465</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0015496146185743</v>
+        <v>0.0009304357225856</v>
       </c>
       <c r="N4" t="n">
-        <v>3.90850722311397</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.785776278274198</v>
+        <v>0.991853558731605</v>
       </c>
       <c r="G5" t="n">
         <v>0.0172413793103448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.810344827586207</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="K5" t="n">
-        <v>-33.2045454545455</v>
+        <v>-55.5269289533995</v>
       </c>
       <c r="L5" t="n">
-        <v>-104.357142857143</v>
+        <v>-105.390712854153</v>
       </c>
       <c r="M5" t="n">
-        <v>23.0886574520287</v>
+        <v>-18.1027411818539</v>
       </c>
       <c r="N5" t="n">
-        <v>-8.85454545454545</v>
+        <v>-17.3521652979374</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.505092511330935</v>
+        <v>0.713504810062474</v>
       </c>
       <c r="G6" t="n">
-        <v>0.791666666666667</v>
+        <v>0.8301886792452829</v>
       </c>
       <c r="H6" t="n">
-        <v>0.25</v>
+        <v>0.207547169811321</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,14 +1024,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.734529093703805</v>
+        <v>0.999352755298456</v>
       </c>
       <c r="G7" t="n">
-        <v>0.413793103448276</v>
+        <v>0.46551724137931</v>
       </c>
       <c r="H7" t="n">
         <v>0.155172413793103</v>
@@ -1040,19 +1040,19 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0006776437847866</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-12.4829118250171</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,11 +1115,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.118453321391658</v>
+        <v>5.33502777852768e-07</v>
       </c>
       <c r="G8" t="n">
         <v>0.0172413793103448</v>
@@ -1131,19 +1131,19 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2535</v>
+        <v>0.2815</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0168493303571429</v>
+        <v>0.0611414059056716</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.006146619374507</v>
+        <v>0.0346709408836149</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0325283549454913</v>
+        <v>0.088958426748936</v>
       </c>
       <c r="N8" t="n">
-        <v>6.64667864187095</v>
+        <v>21.7198600020148</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1206,35 +1206,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.521409432907992</v>
+        <v>0.0025636055114299</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.724137931034483</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.0652232142857142</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0466070709054199</v>
+        <v>-0.103082419159734</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0352579967268092</v>
+        <v>-0.0301845747210705</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-0.844860288675054</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0806521132417552</v>
+        <v>8.26196257348122e-07</v>
       </c>
       <c r="G10" t="n">
         <v>0.0172413793103448</v>
       </c>
       <c r="H10" t="n">
-        <v>0.913793103448276</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2715</v>
+        <v>0.316</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0176023890920432</v>
+        <v>0.0581659599762235</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0063660474742212</v>
+        <v>0.0324319293571876</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0362249629399898</v>
+        <v>0.09338215769598331</v>
       </c>
       <c r="N10" t="n">
-        <v>6.48338456428849</v>
+        <v>18.4069493595644</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.757489150282985</v>
+        <v>4.66836452811382e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.396551724137931</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.327586206896552</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.5</v>
+        <v>0.465</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0580825074194849</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.22480314384992</v>
+        <v>0.0283576410078728</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0887811351662528</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>12.4908618106419</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.168937424369248</v>
+        <v>0.828405400485927</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.775862068965517</v>
+        <v>0.5</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.47</v>
+        <v>0.0255</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0148327743838194</v>
+        <v>-0.0008217097862767</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0243307571404016</v>
+        <v>-0.0023546147088345</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0234745700022869</v>
+        <v>0.0004961798629127</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15590944336584</v>
+        <v>-3.22239131873222</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,46 +1555,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.548124882406037</v>
+        <v>0.746491225748484</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.603448275862069</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.026</v>
+        <v>1.61</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-0.11634704979379</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.00198978335052</v>
+        <v>-0.570436746465885</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0015346638655462</v>
+        <v>0.0573828490043107</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-7.22652483191242</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.974534923624383</v>
+        <v>0.995059367697995</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.171717171717172</v>
       </c>
       <c r="H14" t="n">
-        <v>0.982758620689655</v>
+        <v>0.656565656565657</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.865</v>
+        <v>1.88</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.311798780487805</v>
+        <v>0.140706260032103</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.803933258136653</v>
+        <v>0.0325154961400999</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0370185179515229</v>
+        <v>0.264164179655575</v>
       </c>
       <c r="N14" t="n">
-        <v>-16.7184332701236</v>
+        <v>7.48437553362249</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.980744708314503</v>
+        <v>0.224195628561781</v>
       </c>
       <c r="G15" t="n">
-        <v>0.158878504672897</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.672897196261682</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>10.1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0954238465814342</v>
+        <v>-0.0100343406593404</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-0.027404568684876</v>
       </c>
       <c r="M15" t="n">
-        <v>0.206814558350579</v>
+        <v>0.0144189033366165</v>
       </c>
       <c r="N15" t="n">
-        <v>4.54399269435401</v>
+        <v>-0.0993499075182222</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.240000840942244</v>
+        <v>0.123529764045041</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H16" t="n">
-        <v>0.848739495798319</v>
+        <v>0.228813559322034</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>10.16</v>
+        <v>0.014</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.007996715927750499</v>
+        <v>5.55091185410335e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0293841858371652</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0133334276668765</v>
+        <v>0.0004508303385128</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.07870783393455311</v>
+        <v>0.396493703864525</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0256883821520036</v>
+        <v>0.945504473528595</v>
       </c>
       <c r="G17" t="n">
         <v>0.008474576271186401</v>
       </c>
       <c r="H17" t="n">
-        <v>0.220338983050847</v>
+        <v>0.771186440677966</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.014</v>
+        <v>330</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001999178981937</v>
+        <v>-13.7222866419295</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-35.8840580886024</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0005012990890981</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1.42798498709829</v>
+        <v>-4.15826867937258</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.718785674181044</v>
+        <v>0.08136874438238691</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.867924528301887</v>
       </c>
       <c r="H18" t="n">
-        <v>0.73728813559322</v>
+        <v>0.160377358490566</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>380</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-5.94112446958982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-27.0955015036982</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>11.0359247010725</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.56345380778679</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,29 +2112,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0288094804422111</v>
+        <v>0.991415797784612</v>
       </c>
       <c r="G19" t="n">
-        <v>0.869158878504673</v>
+        <v>0.398305084745763</v>
       </c>
       <c r="H19" t="n">
-        <v>0.158878504672897</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0001353504671122</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.907931054743094</v>
+        <v>0.0004329580675035</v>
       </c>
       <c r="G20" t="n">
-        <v>0.322033898305085</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H20" t="n">
-        <v>0.11864406779661</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.30285</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0150456177293364</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.0067446468219597</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0226108021829272</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4.96800981652185</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0181087725886144</v>
+        <v>0.921530986921724</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0847457627118644</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.872881355932203</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2531</v>
+        <v>7.63</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0060542798042508</v>
+        <v>0.009499365868506599</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0008707268589862</v>
+        <v>-0.001198071074398</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0139072562431499</v>
+        <v>0.0217915840081161</v>
       </c>
       <c r="N21" t="n">
-        <v>2.39205049555544</v>
+        <v>0.124500207975185</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_5e</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,46 +2370,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.973339783184391</v>
+        <v>0.0003232530130455</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0338983050847458</v>
       </c>
       <c r="H22" t="n">
-        <v>0.555555555555556</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.63</v>
+        <v>0.32315</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0142759696512784</v>
+        <v>0.0163928271240345</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0017928982126083</v>
+        <v>0.0080026855113767</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0268350589081805</v>
+        <v>0.0251058635186996</v>
       </c>
       <c r="N22" t="n">
-        <v>0.187103140907974</v>
+        <v>5.07282287607443</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_5e</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0114051032447485</v>
+        <v>0.025033481862956</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0338983050847458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.855932203389831</v>
+        <v>0.703389830508475</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2645</v>
+        <v>0.4775</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0079342573410196</v>
+        <v>0.0141303613604157</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0024940171366125</v>
+        <v>0.0032289661385488</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0159669033711984</v>
+        <v>0.024635336554797</v>
       </c>
       <c r="N23" t="n">
-        <v>2.99971922155752</v>
+        <v>2.95923798123889</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,32 +2563,32 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.585934131128267</v>
+        <v>0.618934247275835</v>
       </c>
       <c r="G24" t="n">
-        <v>0.26271186440678</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.23728813559322</v>
+        <v>0.38135593220339</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0.026</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.0006211734693877</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0532606539559788</v>
+        <v>0.0004285439233755</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.213712314003453</v>
+        <v>0.468427959445891</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.76271186440678</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.47</v>
+        <v>1.97</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0044938482570061</v>
+        <v>0.0042195437235789</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0060594551157572</v>
+        <v>-0.06404107660364609</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0135378167245925</v>
+        <v>0.0534116222919806</v>
       </c>
       <c r="N25" t="n">
-        <v>0.956137927022586</v>
+        <v>0.214190036729896</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.217727019232302</v>
+        <v>0.979493992800073</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.133802816901408</v>
       </c>
       <c r="H26" t="n">
-        <v>0.398305084745763</v>
+        <v>0.605633802816901</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.026</v>
+        <v>1.95</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002449698189134</v>
+        <v>0.0499316473000684</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0002608928571428</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0008229207300027</v>
+        <v>0.103862903372149</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9421916112056971</v>
+        <v>2.56059729743941</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.365687884905389</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.966101694915254</v>
+        <v>0.823170731707317</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.845</v>
+        <v>10.145</v>
       </c>
       <c r="K27" t="n">
-        <v>0.012916752896974</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0341010489463862</v>
+        <v>-0.0165082413642008</v>
       </c>
       <c r="M27" t="n">
-        <v>0.065171805440926</v>
+        <v>0.0202294420846958</v>
       </c>
       <c r="N27" t="n">
-        <v>0.700095007966069</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.40324797025367</v>
+        <v>0.11109174393068</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0061349693251533</v>
       </c>
       <c r="H28" t="n">
+        <v>0.165644171779141</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>0.413</v>
+        <v>0.014</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0147690374266145</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.118483387114223</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0165824809195184</v>
+        <v>0.000204547864915</v>
       </c>
       <c r="N28" t="n">
-        <v>-3.57603811782433</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2993,7 +2993,11 @@
           <t>Mana_5e</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3003,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3018,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.972130005694421</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0061349693251533</v>
       </c>
       <c r="H29" t="n">
+        <v>0.766871165644172</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>113.33</v>
+        <v>378</v>
       </c>
       <c r="K29" t="n">
-        <v>0.155671302838226</v>
+        <v>-11.1018237082067</v>
       </c>
       <c r="L29" t="n">
-        <v>-14.9120706845276</v>
+        <v>-23.3143789668703</v>
       </c>
       <c r="M29" t="n">
-        <v>11.7421048214457</v>
+        <v>-1.31830354267148</v>
       </c>
       <c r="N29" t="n">
-        <v>0.13736107194761</v>
+        <v>-2.93699039899648</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3080,7 +3084,11 @@
           <t>Mana_5e</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3090,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.40324797025367</v>
+        <v>0.804460736714936</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.827814569536424</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.19205298013245</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>5.87</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.11782774588572</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.924751882931618</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.281452931741926</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-2.00728698272096</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3167,7 +3175,11 @@
           <t>Mana_5e</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3177,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.053702318165127</v>
+        <v>0.681481001640846</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.441717791411043</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.0858895705521472</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0.569</v>
+        <v>0.002</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.023014585764294</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0396145033424432</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0069104647039248</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-4.04474266507804</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3254,7 +3266,11 @@
           <t>Mana_5e</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3264,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.295752518497458</v>
+        <v>0.137964851951076</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="H32" t="n">
+        <v>0.877300613496933</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>116</v>
+        <v>0.3087</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.710326721120187</v>
+        <v>0.0021736788076474</v>
       </c>
       <c r="L32" t="n">
-        <v>-2.00639579770822</v>
+        <v>-0.0015399502703887</v>
       </c>
       <c r="M32" t="n">
-        <v>1.0056418998237</v>
+        <v>0.0070107577863459</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.612350621655333</v>
+        <v>0.704139555441354</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3341,7 +3357,11 @@
           <t>Mana_5e</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3351,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3366,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.053702318165127</v>
+        <v>0.325033397748025</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.509316770186335</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.135</v>
+        <v>7.64</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.08969304229195089</v>
+        <v>-0.0021050676992012</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.216127398531559</v>
+        <v>-0.0100326251531813</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0111741255291738</v>
+        <v>0.0050011410314925</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.4619892794124</v>
+        <v>-0.027553242136142</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3399,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3429,6 +3449,892 @@
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.153413903713143</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0245398773006135</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.858895705521472</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0030398149644473</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0019963975155279</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0070973912506239</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.935327681368406</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.765922060977047</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.699386503067485</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.0032717332954401</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0123121996634018</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0042145873358234</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.641516332439253</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.880535972532298</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.349693251533742</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0002545296167247</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0006286574870912</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.978960064325919</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.882140985665624</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.926380368098159</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0290639219220539</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0825075959699596</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0132970655555135</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.41086999621621</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0048550324373703</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0284306390255863</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0165824809195184</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.18995893072802</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>120</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.94894829621111</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-14.9120706845276</v>
+      </c>
+      <c r="M39" t="n">
+        <v>10.3368139756449</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.45745691350926</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.176039540668749</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.198183964741604</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.316921674964902</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.99897002842844</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.015911563693245</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.025101332398317</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0397802971142901</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.01034160345147</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-4.92182988202294</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.570986171506239</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>116</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0835870319001383</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-2.00639579770822</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.92566980453025</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.07205778612080881</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Raparapawai at Jackson Rd</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.295752518497458</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6.135</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0201350606394709</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.141464565147598</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.137650668812401</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.328199847424138</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1854499</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5532098</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Tamaki - Hopelands</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_5e</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/RaparapawaiatJacksonRd_991412037a.xlsx
+++ b/trend_results/Rivers/RaparapawaiatJacksonRd_991412037a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="64">
   <si>
     <t>site name</t>
   </si>
@@ -139,52 +139,46 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
     <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -663,31 +657,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.46625198963756</v>
+        <v>0.189291790764084</v>
       </c>
       <c r="G2">
-        <v>0.361702127659574</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="H2">
-        <v>0.48936170212766</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-0.0407744636316067</v>
       </c>
       <c r="L2">
-        <v>-0.179992786036978</v>
+        <v>-0.64639167903256</v>
       </c>
       <c r="M2">
-        <v>0.0471815828388365</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>-1.40601598729678</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -702,19 +696,19 @@
         <v>5532098</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" t="s">
         <v>59</v>
-      </c>
-      <c r="V2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -734,31 +728,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.442467978937887</v>
+        <v>0.557532021062113</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.88135593220339</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.23</v>
+        <v>10.21</v>
       </c>
       <c r="K3">
-        <v>-0.00996635732154</v>
+        <v>0.0050171703296702</v>
       </c>
       <c r="L3">
-        <v>-0.0532274234557269</v>
+        <v>-0.0631602517583392</v>
       </c>
       <c r="M3">
-        <v>0.0425757404575977</v>
+        <v>0.0598575020325044</v>
       </c>
       <c r="N3">
-        <v>-0.09742284771788889</v>
+        <v>0.0491397681652323</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -773,19 +767,19 @@
         <v>5532098</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" t="s">
         <v>60</v>
-      </c>
-      <c r="W3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -802,16 +796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.404325116836936</v>
+        <v>0.921254721044392</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.413793103448276</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -820,22 +814,22 @@
         <v>0.014</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.0006911069063386</v>
       </c>
       <c r="L4">
-        <v>-0.0006268595965465</v>
+        <v>-0.0017107728337236</v>
       </c>
       <c r="M4">
-        <v>0.0009304357225856</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-4.93647790241925</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q4">
         <v>1854499</v>
@@ -844,19 +838,19 @@
         <v>5532098</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -876,37 +870,37 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.991853558731605</v>
+        <v>0.983602468742061</v>
       </c>
       <c r="G5">
-        <v>0.0172413793103448</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H5">
-        <v>0.844827586206897</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K5">
-        <v>-55.5269289533995</v>
+        <v>-30.7514221158958</v>
       </c>
       <c r="L5">
-        <v>-105.390712854153</v>
+        <v>-78.3950610501079</v>
       </c>
       <c r="M5">
-        <v>-18.1027411818539</v>
+        <v>-6.27335356525076</v>
       </c>
       <c r="N5">
-        <v>-17.3521652979374</v>
+        <v>-15.3757110579479</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1854499</v>
@@ -915,19 +909,19 @@
         <v>5532098</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>0.713504810062474</v>
+        <v>0.888537098226569</v>
       </c>
       <c r="G6">
-        <v>0.8301886792452829</v>
+        <v>0.811320754716981</v>
       </c>
       <c r="H6">
         <v>0.207547169811321</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -977,7 +971,7 @@
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1854499</v>
@@ -986,19 +980,19 @@
         <v>5532098</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1015,40 +1009,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7">
-        <v>0.999352755298456</v>
+        <v>0.999968766242281</v>
       </c>
       <c r="G7">
-        <v>0.46551724137931</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="H7">
-        <v>0.155172413793103</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K7">
-        <v>-0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0006776437847866</v>
+        <v>-0.0006273911394828</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-12.4829118250171</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1854499</v>
@@ -1057,19 +1051,19 @@
         <v>5532098</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1089,37 +1083,37 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>5.33502777852768E-07</v>
+        <v>0.134403371773833</v>
       </c>
       <c r="G8">
         <v>0.0172413793103448</v>
       </c>
       <c r="H8">
-        <v>0.948275862068966</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.2815</v>
+        <v>0.2535</v>
       </c>
       <c r="K8">
-        <v>0.0611414059056716</v>
+        <v>0.0147258350202429</v>
       </c>
       <c r="L8">
-        <v>0.0346709408836149</v>
+        <v>-0.009034513359894801</v>
       </c>
       <c r="M8">
-        <v>0.088958426748936</v>
+        <v>0.0537851856571126</v>
       </c>
       <c r="N8">
-        <v>21.7198600020148</v>
+        <v>5.80900789753173</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1854499</v>
@@ -1128,19 +1122,19 @@
         <v>5532098</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1160,37 +1154,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.0025636055114299</v>
+        <v>0.087397845514291</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.758620689655172</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="K9">
-        <v>-0.0652232142857142</v>
+        <v>-0.0318506860067526</v>
       </c>
       <c r="L9">
-        <v>-0.103082419159734</v>
+        <v>-0.0720175937398746</v>
       </c>
       <c r="M9">
-        <v>-0.0301845747210705</v>
+        <v>0.0059665764607378</v>
       </c>
       <c r="N9">
-        <v>-0.844860288675054</v>
+        <v>-0.413108767921564</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>1854499</v>
@@ -1199,16 +1193,16 @@
         <v>5532098</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1228,37 +1222,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>8.26196257348122E-07</v>
+        <v>0.168937424369248</v>
       </c>
       <c r="G10">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.948275862068966</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.316</v>
+        <v>0.2825</v>
       </c>
       <c r="K10">
-        <v>0.0581659599762235</v>
+        <v>0.009187020428637499</v>
       </c>
       <c r="L10">
-        <v>0.0324319293571876</v>
+        <v>-0.0115652171114407</v>
       </c>
       <c r="M10">
-        <v>0.09338215769598331</v>
+        <v>0.0540486439225937</v>
       </c>
       <c r="N10">
-        <v>18.4069493595644</v>
+        <v>3.25204262960622</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>1854499</v>
@@ -1267,19 +1261,19 @@
         <v>5532098</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W10" t="s">
         <v>60</v>
-      </c>
-      <c r="W10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1299,37 +1293,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>4.66836452811382E-05</v>
+        <v>0.0441090165319429</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.793103448275862</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.465</v>
+        <v>0.455</v>
       </c>
       <c r="K11">
-        <v>0.0580825074194849</v>
+        <v>0.0159713255494506</v>
       </c>
       <c r="L11">
-        <v>0.0283576410078728</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0887811351662528</v>
+        <v>0.060206043956044</v>
       </c>
       <c r="N11">
-        <v>12.4908618106419</v>
+        <v>3.51018143943968</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q11">
         <v>1854499</v>
@@ -1338,19 +1332,19 @@
         <v>5532098</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W11" t="s">
         <v>60</v>
-      </c>
-      <c r="W11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1370,31 +1364,31 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.828405400485927</v>
+        <v>0.962027843507212</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>0.482758620689655</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0255</v>
+        <v>0.025</v>
       </c>
       <c r="K12">
-        <v>-0.0008217097862767</v>
+        <v>-0.0014908163265306</v>
       </c>
       <c r="L12">
-        <v>-0.0023546147088345</v>
+        <v>-0.0031007713752999</v>
       </c>
       <c r="M12">
-        <v>0.0004961798629127</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-3.22239131873222</v>
+        <v>-5.96326530612244</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
@@ -1409,19 +1403,19 @@
         <v>5532098</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V12" t="s">
+        <v>58</v>
+      </c>
+      <c r="W12" t="s">
         <v>60</v>
-      </c>
-      <c r="W12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1441,37 +1435,37 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.746491225748484</v>
+        <v>0.328690213555041</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.896551724137931</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.61</v>
+        <v>1.605</v>
       </c>
       <c r="K13">
-        <v>-0.11634704979379</v>
+        <v>0.0441798597501224</v>
       </c>
       <c r="L13">
-        <v>-0.570436746465885</v>
+        <v>-0.157229859283398</v>
       </c>
       <c r="M13">
-        <v>0.0573828490043107</v>
+        <v>0.116951349520895</v>
       </c>
       <c r="N13">
-        <v>-7.22652483191242</v>
+        <v>2.75263923676775</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1854499</v>
@@ -1480,19 +1474,19 @@
         <v>5532098</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1512,13 +1506,13 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.995059367697995</v>
+        <v>0.998256000795928</v>
       </c>
       <c r="G14">
-        <v>0.171717171717172</v>
+        <v>0.186813186813187</v>
       </c>
       <c r="H14">
-        <v>0.656565656565657</v>
+        <v>0.659340659340659</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1527,22 +1521,22 @@
         <v>1.88</v>
       </c>
       <c r="K14">
-        <v>0.140706260032103</v>
+        <v>0.185720338983051</v>
       </c>
       <c r="L14">
-        <v>0.0325154961400999</v>
+        <v>0.0649765956997496</v>
       </c>
       <c r="M14">
-        <v>0.264164179655575</v>
+        <v>0.33652715243385</v>
       </c>
       <c r="N14">
-        <v>7.48437553362249</v>
+        <v>9.87874143526866</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1854499</v>
@@ -1551,19 +1545,19 @@
         <v>5532098</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" t="s">
         <v>59</v>
-      </c>
-      <c r="V14" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1583,13 +1577,13 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.224195628561781</v>
+        <v>0.417145094161179</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.857142857142857</v>
+        <v>0.840336134453782</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1598,22 +1592,22 @@
         <v>10.1</v>
       </c>
       <c r="K15">
-        <v>-0.0100343406593404</v>
+        <v>-0.00332347588717</v>
       </c>
       <c r="L15">
-        <v>-0.027404568684876</v>
+        <v>-0.0248881831950358</v>
       </c>
       <c r="M15">
-        <v>0.0144189033366165</v>
+        <v>0.021660189718513</v>
       </c>
       <c r="N15">
-        <v>-0.0993499075182222</v>
+        <v>-0.0329057018531691</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q15">
         <v>1854499</v>
@@ -1622,19 +1616,19 @@
         <v>5532098</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W15" t="s">
         <v>60</v>
-      </c>
-      <c r="W15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,43 +1642,43 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.123529764045041</v>
+        <v>0.170609500992089</v>
       </c>
       <c r="G16">
         <v>0.008474576271186401</v>
       </c>
       <c r="H16">
-        <v>0.228813559322034</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K16">
-        <v>5.55091185410335E-05</v>
+        <v>0.0001141763050953</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0004508303385128</v>
+        <v>0.0004045759029246</v>
       </c>
       <c r="N16">
-        <v>0.396493703864525</v>
+        <v>0.878279269964172</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>1854499</v>
@@ -1693,19 +1687,19 @@
         <v>5532098</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1725,37 +1719,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.945504473528595</v>
+        <v>0.986607457849069</v>
       </c>
       <c r="G17">
-        <v>0.008474576271186401</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H17">
-        <v>0.771186440677966</v>
+        <v>0.752136752136752</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="K17">
-        <v>-13.7222866419295</v>
+        <v>-18.2018272425249</v>
       </c>
       <c r="L17">
-        <v>-35.8840580886024</v>
+        <v>-37.9672234689214</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-4.27494800588168</v>
       </c>
       <c r="N17">
-        <v>-4.15826867937258</v>
+        <v>-5.87155717500804</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <v>1854499</v>
@@ -1764,19 +1758,19 @@
         <v>5532098</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1793,16 +1787,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>0.08136874438238691</v>
+        <v>0.250101984908362</v>
       </c>
       <c r="G18">
-        <v>0.867924528301887</v>
+        <v>0.847619047619048</v>
       </c>
       <c r="H18">
-        <v>0.160377358490566</v>
+        <v>0.180952380952381</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -1826,7 +1820,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q18">
         <v>1854499</v>
@@ -1835,19 +1829,19 @@
         <v>5532098</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1867,13 +1861,13 @@
         <v>39</v>
       </c>
       <c r="F19">
-        <v>0.991415797784612</v>
+        <v>0.998196553929567</v>
       </c>
       <c r="G19">
-        <v>0.398305084745763</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="H19">
-        <v>0.11864406779661</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1885,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.0001353504671122</v>
+        <v>-0.0001086648566845</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1897,7 +1891,7 @@
         <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1854499</v>
@@ -1906,19 +1900,19 @@
         <v>5532098</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1935,40 +1929,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>0.0004329580675035</v>
+        <v>0.0454506554291849</v>
       </c>
       <c r="G20">
-        <v>0.0508474576271186</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="H20">
-        <v>0.906779661016949</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.30285</v>
+        <v>0.271</v>
       </c>
       <c r="K20">
-        <v>0.0150456177293364</v>
+        <v>0.0067622265913</v>
       </c>
       <c r="L20">
-        <v>0.0067446468219597</v>
+        <v>0.0001386701089388</v>
       </c>
       <c r="M20">
-        <v>0.0226108021829272</v>
+        <v>0.0137901281947425</v>
       </c>
       <c r="N20">
-        <v>4.96800981652185</v>
+        <v>2.49528656505538</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q20">
         <v>1854499</v>
@@ -1977,19 +1971,19 @@
         <v>5532098</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2009,37 +2003,37 @@
         <v>40</v>
       </c>
       <c r="F21">
-        <v>0.921530986921724</v>
+        <v>0.956548173955276</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.551724137931034</v>
+        <v>0.547826086956522</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.63</v>
+        <v>7.66</v>
       </c>
       <c r="K21">
-        <v>0.009499365868506599</v>
+        <v>0.011130822812364</v>
       </c>
       <c r="L21">
-        <v>-0.001198071074398</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.0217915840081161</v>
+        <v>0.0226863354037268</v>
       </c>
       <c r="N21">
-        <v>0.124500207975185</v>
+        <v>0.145311002772376</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q21">
         <v>1854499</v>
@@ -2048,16 +2042,16 @@
         <v>5532098</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,10 +2068,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0003232530130455</v>
+        <v>0.0361215100339689</v>
       </c>
       <c r="G22">
         <v>0.0338983050847458</v>
@@ -2089,25 +2083,25 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.32315</v>
+        <v>0.296</v>
       </c>
       <c r="K22">
-        <v>0.0163928271240345</v>
+        <v>0.0067250693594873</v>
       </c>
       <c r="L22">
-        <v>0.0080026855113767</v>
+        <v>0.0009681518887418</v>
       </c>
       <c r="M22">
-        <v>0.0251058635186996</v>
+        <v>0.0153514429850001</v>
       </c>
       <c r="N22">
-        <v>5.07282287607443</v>
+        <v>2.27198289171869</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q22">
         <v>1854499</v>
@@ -2116,19 +2110,19 @@
         <v>5532098</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V22" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" t="s">
         <v>60</v>
-      </c>
-      <c r="W22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2148,37 +2142,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.025033481862956</v>
+        <v>0.170070560361611</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.703389830508475</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4775</v>
+        <v>0.47</v>
       </c>
       <c r="K23">
-        <v>0.0141303613604157</v>
+        <v>0.0055039125058282</v>
       </c>
       <c r="L23">
-        <v>0.0032289661385488</v>
+        <v>-0.0050783797808736</v>
       </c>
       <c r="M23">
-        <v>0.024635336554797</v>
+        <v>0.0148984204444296</v>
       </c>
       <c r="N23">
-        <v>2.95923798123889</v>
+        <v>1.171045214006</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Q23">
         <v>1854499</v>
@@ -2187,19 +2181,19 @@
         <v>5532098</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V23" t="s">
+        <v>58</v>
+      </c>
+      <c r="W23" t="s">
         <v>60</v>
-      </c>
-      <c r="W23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2216,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>0.618934247275835</v>
+        <v>0.925932871828418</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.38135593220339</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2234,22 +2228,22 @@
         <v>0.026</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-0.000405532938564</v>
       </c>
       <c r="L24">
-        <v>-0.0006211734693877</v>
+        <v>-0.0009509951384869</v>
       </c>
       <c r="M24">
-        <v>0.0004285439233755</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>-1.5597420714001</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1854499</v>
@@ -2258,19 +2252,19 @@
         <v>5532098</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V24" t="s">
+        <v>58</v>
+      </c>
+      <c r="W24" t="s">
         <v>60</v>
-      </c>
-      <c r="W24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2290,13 +2284,13 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.468427959445891</v>
+        <v>0.753905565292616</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.940677966101695</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2305,22 +2299,22 @@
         <v>1.97</v>
       </c>
       <c r="K25">
-        <v>0.0042195437235789</v>
+        <v>-0.0209659120621673</v>
       </c>
       <c r="L25">
-        <v>-0.06404107660364609</v>
+        <v>-0.098638022693268</v>
       </c>
       <c r="M25">
-        <v>0.0534116222919806</v>
+        <v>0.0453569959790728</v>
       </c>
       <c r="N25">
-        <v>0.214190036729896</v>
+        <v>-1.06425949554149</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q25">
         <v>1854499</v>
@@ -2329,19 +2323,19 @@
         <v>5532098</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2361,37 +2355,37 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.979493992800073</v>
+        <v>0.964529068702764</v>
       </c>
       <c r="G26">
-        <v>0.133802816901408</v>
+        <v>0.132867132867133</v>
       </c>
       <c r="H26">
-        <v>0.605633802816901</v>
+        <v>0.608391608391608</v>
       </c>
       <c r="I26">
         <v>4</v>
       </c>
       <c r="J26">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="K26">
-        <v>0.0499316473000684</v>
+        <v>0.0427693208430913</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.103862903372149</v>
+        <v>0.0997808644651528</v>
       </c>
       <c r="N26">
-        <v>2.56059729743941</v>
+        <v>2.25101688647849</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q26">
         <v>1854499</v>
@@ -2400,19 +2394,19 @@
         <v>5532098</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U26" t="s">
+        <v>57</v>
+      </c>
+      <c r="V26" t="s">
+        <v>58</v>
+      </c>
+      <c r="W26" t="s">
         <v>59</v>
-      </c>
-      <c r="V26" t="s">
-        <v>60</v>
-      </c>
-      <c r="W26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,16 +2423,16 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>0.529379547052146</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.823170731707317</v>
+        <v>0.801136363636364</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2450,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-0.0165082413642008</v>
+        <v>-0.0140097425624425</v>
       </c>
       <c r="M27">
-        <v>0.0202294420846958</v>
+        <v>0.0154696912082111</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2471,19 +2465,19 @@
         <v>5532098</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V27" t="s">
+        <v>58</v>
+      </c>
+      <c r="W27" t="s">
         <v>60</v>
-      </c>
-      <c r="W27" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2500,16 +2494,16 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28">
-        <v>0.11109174393068</v>
+        <v>0.451884098515217</v>
       </c>
       <c r="G28">
-        <v>0.0061349693251533</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H28">
-        <v>0.165644171779141</v>
+        <v>0.154285714285714</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2524,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.000204547864915</v>
+        <v>9.90382630092403E-05</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2533,7 +2527,7 @@
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q28">
         <v>1854499</v>
@@ -2542,19 +2536,19 @@
         <v>5532098</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2574,37 +2568,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.972130005694421</v>
+        <v>0.995554556398546</v>
       </c>
       <c r="G29">
-        <v>0.0061349693251533</v>
+        <v>0.0057471264367816</v>
       </c>
       <c r="H29">
-        <v>0.766871165644172</v>
+        <v>0.764367816091954</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>378</v>
+        <v>364.5</v>
       </c>
       <c r="K29">
-        <v>-11.1018237082067</v>
+        <v>-13.4654377880184</v>
       </c>
       <c r="L29">
-        <v>-23.3143789668703</v>
+        <v>-24.4126719532633</v>
       </c>
       <c r="M29">
-        <v>-1.31830354267148</v>
+        <v>-4.64110576062659</v>
       </c>
       <c r="N29">
-        <v>-2.93699039899648</v>
+        <v>-3.69422161536857</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q29">
         <v>1854499</v>
@@ -2613,19 +2607,19 @@
         <v>5532098</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2642,16 +2636,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30">
-        <v>0.804460736714936</v>
+        <v>0.782942416319175</v>
       </c>
       <c r="G30">
-        <v>0.827814569536424</v>
+        <v>0.8271604938271609</v>
       </c>
       <c r="H30">
-        <v>0.19205298013245</v>
+        <v>0.191358024691358</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -2675,7 +2669,7 @@
         <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q30">
         <v>1854499</v>
@@ -2684,19 +2678,19 @@
         <v>5532098</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2716,13 +2710,13 @@
         <v>39</v>
       </c>
       <c r="F31">
-        <v>0.681481001640846</v>
+        <v>0.935938406561693</v>
       </c>
       <c r="G31">
-        <v>0.441717791411043</v>
+        <v>0.462857142857143</v>
       </c>
       <c r="H31">
-        <v>0.0858895705521472</v>
+        <v>0.08</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2746,7 +2740,7 @@
         <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q31">
         <v>1854499</v>
@@ -2755,19 +2749,19 @@
         <v>5532098</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2784,40 +2778,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>0.137964851951076</v>
+        <v>0.371705782008741</v>
       </c>
       <c r="G32">
-        <v>0.0736196319018405</v>
+        <v>0.0742857142857143</v>
       </c>
       <c r="H32">
-        <v>0.877300613496933</v>
+        <v>0.868571428571429</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.3087</v>
+        <v>0.276</v>
       </c>
       <c r="K32">
-        <v>0.0021736788076474</v>
+        <v>0.0005454206072672</v>
       </c>
       <c r="L32">
-        <v>-0.0015399502703887</v>
+        <v>-0.0033481937477824</v>
       </c>
       <c r="M32">
-        <v>0.0070107577863459</v>
+        <v>0.0039994706054274</v>
       </c>
       <c r="N32">
-        <v>0.704139555441354</v>
+        <v>0.197616162053369</v>
       </c>
       <c r="O32" t="s">
         <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q32">
         <v>1854499</v>
@@ -2826,19 +2820,19 @@
         <v>5532098</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2855,40 +2849,40 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.325033397748025</v>
+        <v>0.572647669714559</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.509316770186335</v>
+        <v>0.476744186046512</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.64</v>
+        <v>7.665</v>
       </c>
       <c r="K33">
-        <v>-0.0021050676992012</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>-0.0100326251531813</v>
+        <v>-0.0063170264180229</v>
       </c>
       <c r="M33">
-        <v>0.0050011410314925</v>
+        <v>0.0076946303231559</v>
       </c>
       <c r="N33">
-        <v>-0.027553242136142</v>
+        <v>0</v>
       </c>
       <c r="O33" t="s">
         <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q33">
         <v>1854499</v>
@@ -2897,16 +2891,16 @@
         <v>5532098</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2923,40 +2917,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>0.153413903713143</v>
+        <v>0.406031075091379</v>
       </c>
       <c r="G34">
-        <v>0.0245398773006135</v>
+        <v>0.0228571428571429</v>
       </c>
       <c r="H34">
-        <v>0.858895705521472</v>
+        <v>0.862857142857143</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.325</v>
+        <v>0.307</v>
       </c>
       <c r="K34">
-        <v>0.0030398149644473</v>
+        <v>0.0009002053856686</v>
       </c>
       <c r="L34">
-        <v>-0.0019963975155279</v>
+        <v>-0.0040700778235233</v>
       </c>
       <c r="M34">
-        <v>0.0070973912506239</v>
+        <v>0.0042686632238568</v>
       </c>
       <c r="N34">
-        <v>0.935327681368406</v>
+        <v>0.293226509989787</v>
       </c>
       <c r="O34" t="s">
         <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q34">
         <v>1854499</v>
@@ -2965,19 +2959,19 @@
         <v>5532098</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V34" t="s">
+        <v>58</v>
+      </c>
+      <c r="W34" t="s">
         <v>60</v>
-      </c>
-      <c r="W34" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2997,37 +2991,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.765922060977047</v>
+        <v>0.921070780477808</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.699386503067485</v>
+        <v>0.674285714285714</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="K35">
-        <v>-0.0032717332954401</v>
+        <v>-0.0050979064039408</v>
       </c>
       <c r="L35">
-        <v>-0.0123121996634018</v>
+        <v>-0.0128420833448219</v>
       </c>
       <c r="M35">
-        <v>0.0042145873358234</v>
+        <v>0.0003793110511601</v>
       </c>
       <c r="N35">
-        <v>-0.641516332439253</v>
+        <v>-1.04038906202875</v>
       </c>
       <c r="O35" t="s">
         <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q35">
         <v>1854499</v>
@@ -3036,19 +3030,19 @@
         <v>5532098</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V35" t="s">
+        <v>58</v>
+      </c>
+      <c r="W35" t="s">
         <v>60</v>
-      </c>
-      <c r="W35" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3068,13 +3062,13 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.880535972532298</v>
+        <v>0.971936848412279</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.349693251533742</v>
+        <v>0.325714285714286</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3083,16 +3077,16 @@
         <v>0.026</v>
       </c>
       <c r="K36">
-        <v>-0.0002545296167247</v>
+        <v>-0.0003494100765306</v>
       </c>
       <c r="L36">
-        <v>-0.0006286574870912</v>
+        <v>-0.0006745667182672</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>-0.978960064325919</v>
+        <v>-1.34388490973312</v>
       </c>
       <c r="O36" t="s">
         <v>43</v>
@@ -3107,19 +3101,19 @@
         <v>5532098</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V36" t="s">
+        <v>58</v>
+      </c>
+      <c r="W36" t="s">
         <v>60</v>
-      </c>
-      <c r="W36" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3139,37 +3133,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.882140985665624</v>
+        <v>0.9208871291805369</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.926380368098159</v>
+        <v>0.902857142857143</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="K37">
-        <v>-0.0290639219220539</v>
+        <v>-0.0282946001367054</v>
       </c>
       <c r="L37">
-        <v>-0.0825075959699596</v>
+        <v>-0.0742991166407569</v>
       </c>
       <c r="M37">
-        <v>0.0132970655555135</v>
+        <v>0.0038035577920406</v>
       </c>
       <c r="N37">
-        <v>-1.41086999621621</v>
+        <v>-1.38699020277968</v>
       </c>
       <c r="O37" t="s">
         <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q37">
         <v>1854499</v>
@@ -3178,19 +3172,19 @@
         <v>5532098</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3210,7 +3204,7 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.59675202974633</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3222,25 +3216,25 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.408</v>
+        <v>0.413</v>
       </c>
       <c r="K38">
-        <v>0.0048550324373703</v>
+        <v>0.0196880106939576</v>
       </c>
       <c r="L38">
         <v>-0.0284306390255863</v>
       </c>
       <c r="M38">
-        <v>0.0165824809195184</v>
+        <v>0.0437385584144439</v>
       </c>
       <c r="N38">
-        <v>1.18995893072802</v>
+        <v>4.76707280725366</v>
       </c>
       <c r="O38" t="s">
         <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q38">
         <v>1854499</v>
@@ -3249,16 +3243,16 @@
         <v>5532098</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3290,25 +3284,25 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>120</v>
+        <v>125.33</v>
       </c>
       <c r="K39">
-        <v>2.94894829621111</v>
+        <v>5.1051857527837</v>
       </c>
       <c r="L39">
         <v>-14.9120706845276</v>
       </c>
       <c r="M39">
-        <v>10.3368139756449</v>
+        <v>8.2326392223734</v>
       </c>
       <c r="N39">
-        <v>2.45745691350926</v>
+        <v>4.07339483984976</v>
       </c>
       <c r="O39" t="s">
         <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q39">
         <v>1854499</v>
@@ -3317,16 +3311,16 @@
         <v>5532098</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3346,7 +3340,7 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.889664319040077</v>
+        <v>0.986256831944245</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3358,19 +3352,19 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>5.87</v>
+        <v>6.08</v>
       </c>
       <c r="K40">
-        <v>0.176039540668749</v>
+        <v>0.290850191444737</v>
       </c>
       <c r="L40">
-        <v>-0.198183964741604</v>
+        <v>0.181411532995185</v>
       </c>
       <c r="M40">
-        <v>0.316921674964902</v>
+        <v>0.391962765459392</v>
       </c>
       <c r="N40">
-        <v>2.99897002842844</v>
+        <v>4.78372025402528</v>
       </c>
       <c r="O40" t="s">
         <v>43</v>
@@ -3385,16 +3379,16 @@
         <v>5532098</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3414,7 +3408,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.015911563693245</v>
+        <v>0.07620314197837499</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3426,25 +3420,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.51</v>
+        <v>0.4745</v>
       </c>
       <c r="K41">
-        <v>-0.025101332398317</v>
+        <v>-0.023014585764294</v>
       </c>
       <c r="L41">
-        <v>-0.0397802971142901</v>
+        <v>-0.0396145033424432</v>
       </c>
       <c r="M41">
-        <v>-0.01034160345147</v>
+        <v>0.0003560367154891</v>
       </c>
       <c r="N41">
-        <v>-4.92182988202294</v>
+        <v>-4.85028150986176</v>
       </c>
       <c r="O41" t="s">
         <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q41">
         <v>1854499</v>
@@ -3453,16 +3447,16 @@
         <v>5532098</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3482,7 +3476,7 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.570986171506239</v>
+        <v>0.639742606431872</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3494,25 +3488,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>116</v>
+        <v>118.5</v>
       </c>
       <c r="K42">
-        <v>0.0835870319001383</v>
+        <v>0.670777727682598</v>
       </c>
       <c r="L42">
         <v>-2.00639579770822</v>
       </c>
       <c r="M42">
-        <v>1.92566980453025</v>
+        <v>2.57012676652031</v>
       </c>
       <c r="N42">
-        <v>0.07205778612080881</v>
+        <v>0.56605715416253</v>
       </c>
       <c r="O42" t="s">
         <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q42">
         <v>1854499</v>
@@ -3521,16 +3515,16 @@
         <v>5532098</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3550,7 +3544,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.295752518497458</v>
+        <v>0.5</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3562,25 +3556,25 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>6.135</v>
+        <v>6.1665</v>
       </c>
       <c r="K43">
-        <v>-0.0201350606394709</v>
+        <v>-0.0129657119806372</v>
       </c>
       <c r="L43">
-        <v>-0.141464565147598</v>
+        <v>-0.135165002543246</v>
       </c>
       <c r="M43">
-        <v>0.137650668812401</v>
+        <v>0.165484616414502</v>
       </c>
       <c r="N43">
-        <v>-0.328199847424138</v>
+        <v>-0.210260471590647</v>
       </c>
       <c r="O43" t="s">
         <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q43">
         <v>1854499</v>
@@ -3589,16 +3583,16 @@
         <v>5532098</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
